--- a/CDM Content/Digital Building Twin/CDM_Space.xlsx
+++ b/CDM Content/Digital Building Twin/CDM_Space.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buildingminds1.sharepoint.com/sites/CDM-testteam/Freigegebene Dokumente/General/CDM Content/Digital Building Twin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AD181F22-179A-A440-AB24-A3E313FEE1E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1038F014-42E1-5645-9C39-86B459216697}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{AD181F22-179A-A440-AB24-A3E313FEE1E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1927A831-E3DC-B74C-87BB-AB397AF16633}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,41 +34,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+  <si>
+    <t>FloorId</t>
+  </si>
+  <si>
+    <t>SpaceId</t>
+  </si>
+  <si>
+    <t>SpaceCode</t>
+  </si>
+  <si>
+    <t>ValidFrom</t>
+  </si>
+  <si>
+    <t>ValidEnd</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ValidFrom</t>
-  </si>
-  <si>
-    <t>GUID</t>
-  </si>
-  <si>
-    <t>ValidEnd</t>
+    <t>SpaceNumber</t>
   </si>
   <si>
     <t>AreaMeasurementId</t>
   </si>
   <si>
-    <t>FloorId</t>
-  </si>
-  <si>
-    <t>SpaceId</t>
-  </si>
-  <si>
-    <t>SpaceCode</t>
-  </si>
-  <si>
-    <t>SpaceNumber</t>
-  </si>
-  <si>
     <t>SpaceHightUsable</t>
   </si>
   <si>
     <t>SpaceHight</t>
   </si>
   <si>
+    <t>SpaceVolumeGross</t>
+  </si>
+  <si>
     <t>SpaceVolumeNet</t>
   </si>
   <si>
@@ -90,9 +90,6 @@
     <t>Rentability</t>
   </si>
   <si>
-    <t>RentalArea</t>
-  </si>
-  <si>
     <t>EffectZonesHeating</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>EffectZonesVentilation</t>
   </si>
   <si>
-    <t>EffectZonesSanitary</t>
-  </si>
-  <si>
     <t>ClimateHeated</t>
   </si>
   <si>
@@ -120,13 +114,13 @@
     <t>VentilationType</t>
   </si>
   <si>
-    <t>Acoustics</t>
-  </si>
-  <si>
-    <t>AcousticsInsulation</t>
-  </si>
-  <si>
-    <t>SpaceVolumeGross</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ValidUntil</t>
+  </si>
+  <si>
+    <t>Guid</t>
   </si>
 </sst>
 </file>
@@ -162,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,58 +474,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3D4E98-1349-EF46-83A9-BEA8BC5DB549}">
-  <dimension ref="A1:AE86"/>
+  <dimension ref="A1:AQ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="12" max="14" width="11" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="11" customWidth="1"/>
-    <col min="22" max="24" width="11" customWidth="1"/>
-    <col min="28" max="33" width="11" customWidth="1"/>
+    <col min="21" max="21" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="11" customWidth="1"/>
     <col min="35" max="36" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -553,54 +561,87 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AP1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -620,12 +661,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,15 +851,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -845,17 +887,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>